--- a/Hardware/Rev2/BOM.xlsx
+++ b/Hardware/Rev2/BOM.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="17040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
     <sheet name="Order" sheetId="2" r:id="rId2"/>
+    <sheet name="Order as Placed" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="BOM" localSheetId="0">Source!$A$1:$M$62</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="433">
   <si>
     <t>Qty</t>
   </si>
@@ -931,15 +932,9 @@
     <t>Charger power input connector</t>
   </si>
   <si>
-    <t>1x2, 0.1" header pins for button inputs</t>
-  </si>
-  <si>
     <t>1x10 Female headers for LED bargraph mounting</t>
   </si>
   <si>
-    <t>1x10, 0.1" header pins for external bar graph connection</t>
-  </si>
-  <si>
     <t>RJ-45 Jack</t>
   </si>
   <si>
@@ -1049,6 +1044,309 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/RC1206FR-07120RL/311-120FRCT-ND/731470</t>
+  </si>
+  <si>
+    <t>311-1.00MFRCT-ND</t>
+  </si>
+  <si>
+    <t>RC1206FR-071ML</t>
+  </si>
+  <si>
+    <t>311-1.00KFRCT-ND</t>
+  </si>
+  <si>
+    <t>RC1206FR-071KL</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/RC1206FR-071KL/311-1.00KFRCT-ND/731334</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/RC1206FR-071ML/311-1.00MFRCT-ND/731335</t>
+  </si>
+  <si>
+    <t>311-200FRCT-ND</t>
+  </si>
+  <si>
+    <t>RC1206FR-07200RL</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/RC1206FR-07200RL/311-200FRCT-ND/731622</t>
+  </si>
+  <si>
+    <t>311-3.30KFRCT-ND</t>
+  </si>
+  <si>
+    <t>RC1206FR-073K3L</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/RC1206FR-073K3L/311-3.30KFRCT-ND/731713</t>
+  </si>
+  <si>
+    <t>311-470ERCT-ND</t>
+  </si>
+  <si>
+    <t>RC1206JR-07470RL</t>
+  </si>
+  <si>
+    <t>311-4.7KERCT-ND</t>
+  </si>
+  <si>
+    <t>RC1206JR-074K7L</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/RC1206JR-074K7L/311-4.7KERCT-ND/732242</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/RC1206JR-07470RL/311-470ERCT-ND/732248</t>
+  </si>
+  <si>
+    <t>311-60.4KFRCT-ND</t>
+  </si>
+  <si>
+    <t>RC1206FR-0760K4L</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/RC1206FR-0760K4L/311-60.4KFRCT-ND/731984</t>
+  </si>
+  <si>
+    <t>490-5989-1-ND</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>93B9533</t>
+  </si>
+  <si>
+    <t>IRLS3034-7PPBF-ND</t>
+  </si>
+  <si>
+    <t>DMG3420U-7</t>
+  </si>
+  <si>
+    <t>DMG3420U-7DICT-ND</t>
+  </si>
+  <si>
+    <t>620-1538-5-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/BLM31PG330SN1L/490-5989-1-ND/3845189</t>
+  </si>
+  <si>
+    <t>http://www.newark.com/fair-rite/2773019447/ferrite-bead-0-0008ohm-5a/dp/93B9533?ost=93B9533&amp;categoryId=&amp;categoryName=</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/IRLS3034-7PPBF/IRLS3034-7PPBF-ND/2095857</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/DMG3420U-7/DMG3420U-7DICT-ND/2279223</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/ACS770ECB-200B-PFF-T/620-1538-5-ND/4473977</t>
+  </si>
+  <si>
+    <t>BAS21-FDICT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/BAS21-7-F/BAS21-FDICT-ND/717813</t>
+  </si>
+  <si>
+    <t>568-6017-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/BAT46WJ,115/568-6017-1-ND/2531304</t>
+  </si>
+  <si>
+    <t>IRFH7191TRPBF</t>
+  </si>
+  <si>
+    <t>IRFH7191TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/IRFH7191TRPBF/IRFH7191TRPBFCT-ND/5213124</t>
+  </si>
+  <si>
+    <t>754-1671-5-ND</t>
+  </si>
+  <si>
+    <t>LT1910ES8#PBF-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/LT1910ES8%23PBF/LT1910ES8%23PBF-ND/890353</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=DC7G3HWA</t>
+  </si>
+  <si>
+    <t>LT6004CMS8#PBF-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/LT6004CMS8%23PBF/LT6004CMS8%23PBF-ND/1620563</t>
+  </si>
+  <si>
+    <t>LTC4440EMS8E#PBF-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/LTC4440EMS8E%23PBF/LTC4440EMS8E%23PBF-ND/888522</t>
+  </si>
+  <si>
+    <t>MAX3077EESA+-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/MAX3077EESA%2B/MAX3077EESA%2B-ND/1164032</t>
+  </si>
+  <si>
+    <t>MMSZ5267BT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/MMSZ5267BT1G/MMSZ5267BT1GOSCT-ND/919781</t>
+  </si>
+  <si>
+    <t>568-6456-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/PDZ7.5B,115/568-6456-1-ND/2531743</t>
+  </si>
+  <si>
+    <t>LTC6803IG-2#PBF-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/LTC6803IG-2%23PBF/LTC6803IG-2%23PBF-ND/2618610</t>
+  </si>
+  <si>
+    <t>296-40591-1-ND</t>
+  </si>
+  <si>
+    <t>25136NAH</t>
+  </si>
+  <si>
+    <t>96C6560</t>
+  </si>
+  <si>
+    <t>WM4200-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/TLC6C5912QPWRQ1/296-39249-1-ND/5143241</t>
+  </si>
+  <si>
+    <t>http://www.newark.com/apem/25436nah/switch-slide-spst-4a-250v-though/dp/96C6577</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669</t>
+  </si>
+  <si>
+    <t>WM4201-ND</t>
+  </si>
+  <si>
+    <t>1x2 Crimp housing</t>
+  </si>
+  <si>
+    <t>1x9 Crimp housing</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=0022232091</t>
+  </si>
+  <si>
+    <t>WM4207-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022013097/WM2007-ND/26445</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022013027/WM2000-ND/26431</t>
+  </si>
+  <si>
+    <t>WM2000-ND</t>
+  </si>
+  <si>
+    <t>WM2007-ND</t>
+  </si>
+  <si>
+    <t>455-2271-ND</t>
+  </si>
+  <si>
+    <t>Crimp pins</t>
+  </si>
+  <si>
+    <t>JST crimp housing</t>
+  </si>
+  <si>
+    <t>JST crimp pins</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/B6B-XH-A(LF)(SN)/455-2271-ND/1000381</t>
+  </si>
+  <si>
+    <t>XHP-6</t>
+  </si>
+  <si>
+    <t>455-2218-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/XHP-6/455-2218-ND/1651016</t>
+  </si>
+  <si>
+    <t>455-1135-1-ND</t>
+  </si>
+  <si>
+    <t>SXH-001T-P0.6</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/SXH-001T-P0.6/455-1135-1-ND/527370</t>
+  </si>
+  <si>
+    <t>WM2312CT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0008550101/WM2312CT-ND/467805</t>
+  </si>
+  <si>
+    <t>WM3193-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=399700102</t>
+  </si>
+  <si>
+    <t>Pololu</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/1020</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>COM-12992</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/12992</t>
+  </si>
+  <si>
+    <t>811-2196-5-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=OKI-78SR5</t>
+  </si>
+  <si>
+    <t>SI2309CDS-T1-E3</t>
+  </si>
+  <si>
+    <t>SI2309CDS-T1-E3CT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/SI2309CDS-T1-E3/SI2309CDS-T1-E3CT-ND/4767830</t>
+  </si>
+  <si>
+    <t>160-1403-1-ND</t>
+  </si>
+  <si>
+    <t>LTST-C150KFKT</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/LTST-C150KFKT/160-1403-1-ND/386757</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1356,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1090,6 +1388,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1108,7 +1412,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1172,13 +1476,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="134">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1210,6 +1589,73 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1241,6 +1687,10 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1576,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2882,11 +3332,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2894,8 +3344,8 @@
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2944,16 +3394,16 @@
         <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
         <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F3" s="1">
         <v>3.9800000000000002E-2</v>
@@ -2969,21 +3419,21 @@
         <v>2.3879999999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
         <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F4" s="1">
         <v>0.13</v>
@@ -2995,25 +3445,25 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I60" si="0">F4*H4</f>
+        <f t="shared" ref="I4:I63" si="0">F4*H4</f>
         <v>1.3</v>
       </c>
       <c r="J4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
         <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F5" s="1">
         <v>9.1999999999999998E-2</v>
@@ -3029,21 +3479,21 @@
         <v>1.38</v>
       </c>
       <c r="J5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
         <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F6" s="1">
         <v>0.19</v>
@@ -3059,21 +3509,21 @@
         <v>1.9</v>
       </c>
       <c r="J6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
         <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F7" s="1">
         <v>0.16500000000000001</v>
@@ -3089,21 +3539,21 @@
         <v>4.125</v>
       </c>
       <c r="J7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
         <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F8" s="1">
         <v>1.91</v>
@@ -3112,7 +3562,7 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H5:H60" si="1">$H$1*G8</f>
+        <f t="shared" ref="H8:H63" si="1">$H$1*G8</f>
         <v>16</v>
       </c>
       <c r="I8" s="1">
@@ -3120,10 +3570,10 @@
         <v>30.56</v>
       </c>
       <c r="J8" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" t="s">
         <v>314</v>
-      </c>
-      <c r="K8" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3147,16 +3597,16 @@
         <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
         <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F10" s="1">
         <v>2.3199999999999998E-2</v>
@@ -3172,37 +3622,1863 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
         <v>240</v>
       </c>
       <c r="D11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>20.723199999999999</v>
+      </c>
+      <c r="J12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="J15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="J19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" t="s">
+        <v>353</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>3.69</v>
+      </c>
+      <c r="J26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" t="s">
+        <v>356</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>51.6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" t="s">
+        <v>431</v>
+      </c>
+      <c r="C28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" t="s">
+        <v>430</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7839999999999989</v>
+      </c>
+      <c r="J28" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>358</v>
+      </c>
+      <c r="C29" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" t="s">
+        <v>357</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7200000000000006</v>
+      </c>
+      <c r="J29" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" t="s">
+        <v>359</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8.07</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>48.42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" t="s">
+        <v>365</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="J31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" t="s">
+        <v>367</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="J32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" t="s">
+        <v>298</v>
+      </c>
+      <c r="E33" t="s">
+        <v>370</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>18.64</v>
+      </c>
+      <c r="J33" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" t="s">
+        <v>372</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="0"/>
+        <v>7.84</v>
+      </c>
+      <c r="J35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" t="s">
+        <v>373</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="0"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E37" t="s">
+        <v>376</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="0"/>
+        <v>6.63</v>
+      </c>
+      <c r="J37" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" t="s">
+        <v>378</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" t="s">
+        <v>298</v>
+      </c>
+      <c r="E39" t="s">
+        <v>380</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="0"/>
+        <v>28.56</v>
+      </c>
+      <c r="J39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" t="s">
+        <v>298</v>
+      </c>
+      <c r="E40" t="s">
+        <v>382</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+      <c r="J40" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" t="s">
+        <v>427</v>
+      </c>
+      <c r="C41" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" t="s">
+        <v>428</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="0"/>
+        <v>14.848000000000001</v>
+      </c>
+      <c r="J41" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" t="s">
+        <v>384</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7919999999999998</v>
+      </c>
+      <c r="J43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" t="s">
+        <v>386</v>
+      </c>
+      <c r="F44" s="1">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="J44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D46" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" t="s">
+        <v>425</v>
+      </c>
+      <c r="F46">
+        <v>4.26</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="0"/>
+        <v>21.299999999999997</v>
+      </c>
+      <c r="J46" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C47" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" t="s">
+        <v>388</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>285</v>
+      </c>
+      <c r="C48" t="s">
+        <v>288</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" t="s">
+        <v>389</v>
+      </c>
+      <c r="C49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D49" t="s">
+        <v>354</v>
+      </c>
+      <c r="E49" t="s">
+        <v>390</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="0"/>
+        <v>21.2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>287</v>
+      </c>
+      <c r="D50" t="s">
+        <v>298</v>
+      </c>
+      <c r="E50" t="s">
+        <v>391</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>30</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="0"/>
+        <v>4.59</v>
+      </c>
+      <c r="J50" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>289</v>
+      </c>
+      <c r="D51" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" t="s">
+        <v>396</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="0"/>
+        <v>3.44</v>
+      </c>
+      <c r="J51" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" t="s">
+        <v>298</v>
+      </c>
+      <c r="E52" t="s">
+        <v>400</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5100000000000007</v>
+      </c>
+      <c r="J52" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="4">
+        <v>22013027</v>
+      </c>
+      <c r="C53" t="s">
+        <v>397</v>
+      </c>
+      <c r="D53" t="s">
+        <v>298</v>
+      </c>
+      <c r="E53" t="s">
+        <v>403</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53" s="1">
+        <f>F53*H53</f>
+        <v>0.78</v>
+      </c>
+      <c r="J53" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="4">
+        <v>22013097</v>
+      </c>
+      <c r="C54" t="s">
+        <v>398</v>
+      </c>
+      <c r="D54" t="s">
+        <v>298</v>
+      </c>
+      <c r="E54" t="s">
+        <v>404</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" ref="I54:I55" si="2">F54*H54</f>
+        <v>2.52</v>
+      </c>
+      <c r="J54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4">
+        <v>8550101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>406</v>
+      </c>
+      <c r="D55" t="s">
+        <v>298</v>
+      </c>
+      <c r="E55" t="s">
+        <v>416</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.1426</v>
+      </c>
+      <c r="H55">
+        <v>80</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="2"/>
+        <v>11.408000000000001</v>
+      </c>
+      <c r="J55" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="4"/>
+      <c r="C56" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D57" t="s">
+        <v>298</v>
+      </c>
+      <c r="E57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="J57" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" t="s">
+        <v>410</v>
+      </c>
+      <c r="C58" t="s">
+        <v>407</v>
+      </c>
+      <c r="D58" t="s">
+        <v>298</v>
+      </c>
+      <c r="E58" t="s">
+        <v>411</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1">
+        <f>F58*H58</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" t="s">
+        <v>414</v>
+      </c>
+      <c r="C59" t="s">
+        <v>408</v>
+      </c>
+      <c r="D59" t="s">
+        <v>298</v>
+      </c>
+      <c r="E59" t="s">
+        <v>413</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="G59">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>50</v>
+      </c>
+      <c r="I59" s="1">
+        <f>F59*H59</f>
+        <v>1.8800000000000001</v>
+      </c>
+      <c r="J59" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="4">
+        <v>399700102</v>
+      </c>
+      <c r="C60" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" t="s">
+        <v>298</v>
+      </c>
+      <c r="E60" t="s">
+        <v>418</v>
+      </c>
+      <c r="F60" s="1">
+        <v>6.84</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="0"/>
+        <v>41.04</v>
+      </c>
+      <c r="J60" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="4">
+        <v>1020</v>
+      </c>
+      <c r="C61" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" t="s">
+        <v>420</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1020</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="C62" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>423</v>
+      </c>
+      <c r="C63" t="s">
+        <v>296</v>
+      </c>
+      <c r="D63" t="s">
+        <v>422</v>
+      </c>
+      <c r="E63" t="s">
+        <v>423</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" s="1">
+        <f>SUM(I3:I63)</f>
+        <v>515.78819999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="G1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1">
+      <c r="B2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1">
+        <f>F3*H3</f>
+        <v>2.3879999999999999</v>
+      </c>
+      <c r="J3" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I53" si="0">F4*H4</f>
+        <v>1.3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.125</v>
+      </c>
+      <c r="J7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H53" si="1">$H$1*G8</f>
+        <v>16</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>30.56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" t="s">
+        <v>298</v>
       </c>
       <c r="E11" t="s">
         <v>323</v>
       </c>
       <c r="F11" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.64759999999999995</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>20.723199999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3210,375 +5486,597 @@
         <v>326</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F12" s="1">
-        <v>0.64759999999999995</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>20.723199999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F13" s="1">
-        <v>2.3199999999999998E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>1.1599999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="J13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="B14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F14" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="J14" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>334</v>
+      </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="D15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J15" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="D16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>1.3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>341</v>
+      </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="D17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
+        <v>344</v>
+      </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="D18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" t="s">
+        <v>345</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="G18">
         <v>8</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.88</v>
+      </c>
+      <c r="J18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" t="s">
+        <v>346</v>
+      </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="D19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.4E-2</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>350</v>
+      </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="D20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" t="s">
+        <v>351</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" t="s">
+        <v>353</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="C21" t="s">
-        <v>252</v>
-      </c>
-      <c r="G21">
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="H21">
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.69</v>
+      </c>
+      <c r="J22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" t="s">
+        <v>356</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="C22" t="s">
-        <v>256</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>51.6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" t="s">
+        <v>430</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7839999999999989</v>
+      </c>
+      <c r="J24" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" t="s">
+        <v>358</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" t="s">
+        <v>357</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7200000000000006</v>
+      </c>
+      <c r="J25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E26" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8.07</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>64.56</v>
+      </c>
+      <c r="J26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" t="s">
+        <v>365</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="J27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="J28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" t="s">
+        <v>370</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>18.64</v>
+      </c>
+      <c r="J29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" t="s">
+        <v>372</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="C23" t="s">
-        <v>273</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>282</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" t="s">
-        <v>283</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" t="s">
-        <v>284</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>254</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>253</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="C28" t="s">
-        <v>255</v>
-      </c>
-      <c r="G28">
-        <v>9</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="C29" t="s">
-        <v>257</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
       <c r="I30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>7.84</v>
+      </c>
+      <c r="J30" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="B31" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>260</v>
+        <v>265</v>
+      </c>
+      <c r="D31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4.1500000000000004</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3589,129 +6087,209 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="B32" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" t="s">
+        <v>376</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>6.63</v>
+      </c>
+      <c r="J32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" t="s">
+        <v>298</v>
+      </c>
+      <c r="E33" t="s">
+        <v>378</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J33" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" t="s">
+        <v>298</v>
+      </c>
+      <c r="E34" t="s">
+        <v>380</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>28.56</v>
+      </c>
+      <c r="J34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
         <v>261</v>
       </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
+      <c r="D35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" t="s">
+        <v>382</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+      <c r="J35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" t="s">
+        <v>427</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" t="s">
+        <v>428</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G36">
         <v>8</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="B33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" t="s">
-        <v>262</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" t="s">
-        <v>263</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="B35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" t="s">
-        <v>264</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
+      <c r="H36">
+        <f t="shared" ref="H36" si="2">$H$1*G36</f>
+        <v>32</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="0"/>
+        <v>14.848000000000001</v>
+      </c>
+      <c r="J36" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E37" t="s">
+        <v>384</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G37">
         <v>8</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" t="s">
-        <v>265</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" t="s">
-        <v>266</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>9.7919999999999998</v>
+      </c>
+      <c r="J37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="B38" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
-        <v>267</v>
+        <v>275</v>
+      </c>
+      <c r="D38" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" t="s">
+        <v>386</v>
+      </c>
+      <c r="F38" s="1">
+        <v>17</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3722,183 +6300,299 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J38" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="B39" t="s">
-        <v>172</v>
+        <v>278</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>279</v>
+      </c>
+      <c r="D39" t="s">
+        <v>298</v>
+      </c>
+      <c r="E39" t="s">
+        <v>425</v>
+      </c>
+      <c r="F39">
+        <v>4.26</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="0"/>
+        <v>21.299999999999997</v>
+      </c>
+      <c r="J39" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" t="s">
+        <v>280</v>
+      </c>
+      <c r="C40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" t="s">
+        <v>298</v>
+      </c>
+      <c r="E40" t="s">
+        <v>388</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J40" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" t="s">
+        <v>389</v>
+      </c>
+      <c r="C41" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" t="s">
+        <v>354</v>
+      </c>
+      <c r="E41" t="s">
+        <v>390</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="B40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" t="s">
-        <v>261</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
+      <c r="I41" s="1">
+        <f t="shared" si="0"/>
+        <v>21.2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" t="s">
+        <v>391</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="0"/>
+        <v>4.59</v>
+      </c>
+      <c r="J42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" t="s">
+        <v>396</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="G43">
         <v>4</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="C41" t="s">
-        <v>269</v>
-      </c>
-      <c r="G41">
-        <v>8</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="B42" t="s">
-        <v>270</v>
-      </c>
-      <c r="C42" t="s">
-        <v>271</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" t="s">
-        <v>272</v>
-      </c>
-      <c r="G43">
-        <v>8</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>3.44</v>
+      </c>
+      <c r="J43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="B44" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>290</v>
+      </c>
+      <c r="D44" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" t="s">
+        <v>400</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.55100000000000005</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" t="s">
-        <v>276</v>
+        <v>5.5100000000000007</v>
+      </c>
+      <c r="J44" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" s="4">
+        <v>22013027</v>
       </c>
       <c r="C45" t="s">
-        <v>277</v>
+        <v>397</v>
+      </c>
+      <c r="D45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" t="s">
+        <v>403</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.13</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" t="s">
-        <v>278</v>
+        <f>F45*H45</f>
+        <v>0.78</v>
+      </c>
+      <c r="J45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="4">
+        <v>22013097</v>
       </c>
       <c r="C46" t="s">
-        <v>279</v>
+        <v>398</v>
+      </c>
+      <c r="D46" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" t="s">
+        <v>404</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.42</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="B47" t="s">
-        <v>280</v>
+        <f t="shared" ref="I46:I47" si="3">F46*H46</f>
+        <v>2.52</v>
+      </c>
+      <c r="J46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="4">
+        <v>8550101</v>
       </c>
       <c r="C47" t="s">
-        <v>281</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+        <v>406</v>
+      </c>
+      <c r="D47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" t="s">
+        <v>416</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.1426</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>285</v>
+        <f t="shared" si="3"/>
+        <v>11.408000000000001</v>
+      </c>
+      <c r="J47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" t="s">
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>288</v>
+        <v>292</v>
+      </c>
+      <c r="D48" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" t="s">
+        <v>405</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.26</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3909,214 +6603,167 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+        <v>1.04</v>
+      </c>
+      <c r="J48" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" t="s">
+        <v>410</v>
+      </c>
       <c r="C49" t="s">
-        <v>286</v>
+        <v>407</v>
+      </c>
+      <c r="D49" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" t="s">
+        <v>411</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.14000000000000001</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1">
+        <f>F49*H49</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
+        <v>414</v>
+      </c>
+      <c r="C50" t="s">
+        <v>408</v>
+      </c>
+      <c r="D50" t="s">
+        <v>298</v>
+      </c>
+      <c r="E50" t="s">
+        <v>413</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="G50">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50" s="1">
+        <f>F50*H50</f>
+        <v>1.8800000000000001</v>
+      </c>
+      <c r="J50" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="4">
+        <v>399700102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D51" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" t="s">
+        <v>418</v>
+      </c>
+      <c r="F51" s="1">
+        <v>6.84</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="0"/>
+        <v>41.04</v>
+      </c>
+      <c r="J51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="4">
+        <v>1020</v>
+      </c>
+      <c r="C52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D52" t="s">
+        <v>420</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1020</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" t="s">
+        <v>296</v>
+      </c>
+      <c r="D53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I49" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" t="s">
-        <v>287</v>
-      </c>
-      <c r="G50">
+      <c r="I53" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" t="s">
-        <v>289</v>
-      </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" t="s">
-        <v>290</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="C53" t="s">
-        <v>291</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I53" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" t="s">
-        <v>292</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55">
-        <v>399700102</v>
-      </c>
-      <c r="C55" t="s">
-        <v>293</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I55" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="C56" t="s">
-        <v>294</v>
-      </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I56" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="C57" t="s">
-        <v>296</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+      <c r="J53" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
       <c r="I57" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="C58" t="s">
-        <v>295</v>
-      </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I58" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="C59" t="s">
-        <v>297</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I59" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="C60" t="s">
-        <v>298</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I60" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(I3:I53)</f>
+        <v>531.92819999999995</v>
       </c>
     </row>
   </sheetData>
